--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value720.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value720.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.228589937538391</v>
+        <v>1.796007752418518</v>
       </c>
       <c r="B1">
-        <v>2.052253863014863</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.527757883071899</v>
       </c>
       <c r="D1">
-        <v>1.963764471753277</v>
+        <v>1.100344181060791</v>
       </c>
       <c r="E1">
-        <v>0.9784947531414</v>
+        <v>0.734033465385437</v>
       </c>
     </row>
   </sheetData>
